--- a/RE-Framework 템플릿/Data/Config.xlsx
+++ b/RE-Framework 템플릿/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimhwayeon\Desktop\RPA\Study\RPA 2025 수업\RE-Framework 템플릿\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ECDE2D-6BD6-46B1-9CF1-7FF8348DD7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0285CB-17A3-4970-8DA0-23A2E5B8A69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{80601F42-B835-411D-B6F1-01869415BCDC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{80601F42-B835-411D-B6F1-01869415BCDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -325,9 +325,6 @@
   </si>
   <si>
     <t>MaxConsecutiveSystemExceptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
   </si>
   <si>
     <t>ExceptionMessage_ConsecutiveErrors</t>
@@ -699,6 +696,10 @@
 &lt;td style=""width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"" colspan=""1""&gt;
 &lt;p style=""text-align: center;""&gt;&lt;span style=""font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;""&gt;&amp;nbsp;{6}&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
 &lt;/tr&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1442,9 +1443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5256A42C-5ED4-4055-A8F8-1D2A1026AF2F}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -1471,16 +1472,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="20"/>
     </row>
@@ -1489,10 +1490,10 @@
         <v>88</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1517,10 +1518,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>101</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>102</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>8</v>
@@ -1537,10 +1538,10 @@
     </row>
     <row r="9" spans="1:3" ht="16.899999999999999">
       <c r="A9" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>11</v>
@@ -1588,10 +1589,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>17</v>
@@ -1605,10 +1606,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="18"/>
     </row>
@@ -1617,7 +1618,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>19</v>
@@ -1677,19 +1678,19 @@
     </row>
     <row r="26" spans="1:3" ht="16.899999999999999">
       <c r="A26" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="C27" s="18"/>
     </row>
@@ -1702,32 +1703,32 @@
     </row>
     <row r="29" spans="1:3" ht="26.25">
       <c r="A29" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="406.9">
       <c r="A30" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="32" t="s">
         <v>126</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>127</v>
       </c>
       <c r="C31" s="18"/>
     </row>
@@ -1736,7 +1737,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>85</v>
@@ -1751,22 +1752,22 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" s="18"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1816,7 +1817,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="34"/>
@@ -1931,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B02FB3A-1724-430F-9365-F661BC8DAFBA}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -1964,7 +1965,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>36</v>
@@ -1975,10 +1976,10 @@
         <v>89</v>
       </c>
       <c r="B4" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2024,7 +2025,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>43</v>
@@ -2168,46 +2169,46 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="7">
         <v>2</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="7">
         <v>2</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" s="7" t="b">
         <v>0</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:3">
